--- a/data/codigos_zoneamento_SMDU.xlsx
+++ b/data/codigos_zoneamento_SMDU.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d835916\Desktop\SISTEMAS\geoBdt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117B77AC-81E2-48D8-B7E3-E1CDDE279C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27075CD4-24BF-46D2-B99A-CBC9D0145CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23D04053-BEC1-4936-8786-5BD6814DFD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="codigos_zoneamento" sheetId="1" r:id="rId1"/>
     <sheet name="codigos_macroarea_e_mem" sheetId="3" r:id="rId2"/>
+    <sheet name="codigos_subprefeituras" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,16 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
-  <si>
-    <t>Cod.</t>
-  </si>
-  <si>
-    <t>Sigla</t>
-  </si>
-  <si>
-    <t>Descricao</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="205">
   <si>
     <t>PI</t>
   </si>
@@ -283,9 +275,6 @@
     <t>Macroarea e Setores da MEM</t>
   </si>
   <si>
-    <t>TIPO_ZONEAMENTO</t>
-  </si>
-  <si>
     <t>Zona de Uso</t>
   </si>
   <si>
@@ -391,9 +380,6 @@
     <t>Arco Tamanduateí</t>
   </si>
   <si>
-    <t>tipo</t>
-  </si>
-  <si>
     <t>Macroárea</t>
   </si>
   <si>
@@ -425,6 +411,237 @@
   </si>
   <si>
     <t>Arco Jurubatuba</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>Jacu-Pêssego</t>
+  </si>
+  <si>
+    <t>Arco Jacu-Pêssego</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>Cupecê</t>
+  </si>
+  <si>
+    <t>Avenida Cupecê</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>Noroeste</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>Fernão Dias</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Setor Central</t>
+  </si>
+  <si>
+    <t>PERUS</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PIRITUBA-JARAGUA</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>FREGUESIA-BRASILANDIA</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>CASA VERDE-CACHOEIRINHA</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>SANTANA-TUCURUVI</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>JACANA-TREMEMBE</t>
+  </si>
+  <si>
+    <t>JT</t>
+  </si>
+  <si>
+    <t>VILA MARIA-VILA GUILHERME</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>LAPA</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>BUTANTA</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>PINHEIROS</t>
+  </si>
+  <si>
+    <t>VILA MARIANA</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>IPIRANGA</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>SANTO AMARO</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>JABAQUARA</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>CIDADE ADEMAR</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>CAMPO LIMPO</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>M'BOI MIRIM</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>CAPELA DO SOCORRO</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>PARELHEIROS</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PENHA</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>ERMELINO MATARAZZO</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>SÃO MIGUEL PAULISTA</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>ITAIM PAULISTA</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>MOOCA</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>ARICANDUVA</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>ITAQUERA</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>GUAIANASES</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>VILA PRUDENTE</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>SÃO MATEUS</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>CIDADE TIRADENTES</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>SAPOPEMBA</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>tipo_zoneamento</t>
   </si>
 </sst>
 </file>
@@ -671,10 +888,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D48A26-A830-4637-90AC-178D92D0434C}" name="Tabela1" displayName="Tabela1" ref="A1:D42" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="A1:D42" xr:uid="{7B549717-E4FF-48FC-A62E-A8F44B0D4931}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FE3BFE09-651F-4028-9651-0BC753997725}" name="Cod." dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{AEEB1F38-3E0E-4760-A0D1-78C52430C95C}" name="Sigla" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4255D699-0DC2-4411-ACD1-AC7FC1CD8471}" name="Descricao" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{13635062-680F-4749-A42A-8CAD2B0C1ECC}" name="TIPO_ZONEAMENTO"/>
+    <tableColumn id="1" xr3:uid="{FE3BFE09-651F-4028-9651-0BC753997725}" name="codigo" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{AEEB1F38-3E0E-4760-A0D1-78C52430C95C}" name="sigla" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4255D699-0DC2-4411-ACD1-AC7FC1CD8471}" name="descricao" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{13635062-680F-4749-A42A-8CAD2B0C1ECC}" name="tipo_zoneamento"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -979,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C6C70D-E39E-4505-9AED-14138171F53E}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,16 +1210,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1010,13 +1227,13 @@
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1024,13 +1241,13 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1038,13 +1255,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1052,13 +1269,13 @@
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1066,13 +1283,13 @@
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1080,13 +1297,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1094,13 +1311,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1108,13 +1325,13 @@
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1122,13 +1339,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1136,13 +1353,13 @@
         <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1150,13 +1367,13 @@
         <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1164,13 +1381,13 @@
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1178,13 +1395,13 @@
         <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1192,13 +1409,13 @@
         <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,13 +1423,13 @@
         <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1220,13 +1437,13 @@
         <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1234,13 +1451,13 @@
         <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1248,13 +1465,13 @@
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1262,13 +1479,13 @@
         <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,13 +1493,13 @@
         <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1290,13 +1507,13 @@
         <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1304,13 +1521,13 @@
         <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1318,13 +1535,13 @@
         <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1332,13 +1549,13 @@
         <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1346,13 +1563,13 @@
         <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1360,13 +1577,13 @@
         <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1374,13 +1591,13 @@
         <v>66</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1388,13 +1605,13 @@
         <v>70</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1402,13 +1619,13 @@
         <v>71</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1416,13 +1633,13 @@
         <v>73</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1430,13 +1647,13 @@
         <v>74</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1444,13 +1661,13 @@
         <v>75</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1458,13 +1675,13 @@
         <v>76</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1472,13 +1689,13 @@
         <v>77</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1486,13 +1703,13 @@
         <v>89</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1500,13 +1717,13 @@
         <v>91</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1514,13 +1731,13 @@
         <v>92</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1528,13 +1745,13 @@
         <v>93</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1542,13 +1759,13 @@
         <v>94</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1556,13 +1773,13 @@
         <v>95</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,13 +1787,13 @@
         <v>96</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1590,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A245E37F-69E1-4122-B5C5-F3DE716B1D01}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,198 +1820,647 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
         <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
         <v>130</v>
       </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42963C1-76AE-4C62-89BE-1B88C86C1D8C}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/codigos_zoneamento_SMDU.xlsx
+++ b/data/codigos_zoneamento_SMDU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d835916\Desktop\SISTEMAS\geoBdt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27075CD4-24BF-46D2-B99A-CBC9D0145CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E91E7F8-15C0-4C02-8C6F-6475810B47F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23D04053-BEC1-4936-8786-5BD6814DFD6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{23D04053-BEC1-4936-8786-5BD6814DFD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="codigos_zoneamento" sheetId="1" r:id="rId1"/>
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A245E37F-69E1-4122-B5C5-F3DE716B1D01}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42963C1-76AE-4C62-89BE-1B88C86C1D8C}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
